--- a/modelos/OBACON4426069/OBACON4426069_Sell Out_metricas.xlsx
+++ b/modelos/OBACON4426069/OBACON4426069_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>140.632240759705</v>
       </c>
       <c r="C2" t="n">
-        <v>104.873163499867</v>
+        <v>101.9437806069336</v>
       </c>
       <c r="D2" t="n">
-        <v>175.181755032384</v>
+        <v>176.9580330182825</v>
       </c>
       <c r="E2" t="n">
         <v>94</v>
